--- a/individual_case_outputs/avey/426.xlsx
+++ b/individual_case_outputs/avey/426.xlsx
@@ -597,67 +597,67 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gerd</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>coronavirus disease 2019</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>chronic laryngitis</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>acute laryngitis</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>gerd</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Upper respiratory infection</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>laryngeal polyps</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>reflux laryngitis</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>coronavirus disease 2019</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>acute laryngitis</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>gastroesophageal reflux</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>acute laryngitis</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>reflux laryngitis</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Upper respiratory infection</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>laryngeal polyps</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>reflux laryngitis</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>acute laryngitis</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>gastroesophageal reflux</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>acute laryngitis</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>acute laryngitis</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>reflux laryngitis</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>reflux laryngitis</t>
+          <t>gastroesophageal reflux</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>reflux laryngitis</t>
+          <t>gerd</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
